--- a/ig/ANS-006-115-#150-#67/StructureDefinition-esms-document-reference.xlsx
+++ b/ig/ANS-006-115-#150-#67/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T09:51:35+02:00</t>
+    <t>2024-03-25T16:25:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}regle-NomPieceJointe:Le nom de la pièce jointe doit être  : "Document Individu et décision" ou "Document évaluation" {content.attachment.title='Document Individu et décision' or content.attachment.title='Document évaluation'}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1087,7 +1087,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}regle-NomPieceJointe:Le nom de la pièce jointe doit être  : "Document Individu et décision" ou "Document évaluation" {title='Document Individu et décision' or title='Document évaluation'}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1272,7 +1272,7 @@
     <t>DocumentReference.content.attachment.title</t>
   </si>
   <si>
-    <t>Titre identifiant le contenu du document transporté. Le titre doit être soit 'Document Individu et décision', soit 'Document évaluation'</t>
+    <t>Titre identifiant le contenu du document transporté.</t>
   </si>
   <si>
     <t>A label or set of text to display in place of the data.</t>

--- a/ig/ANS-006-115-#150-#67/StructureDefinition-esms-document-reference.xlsx
+++ b/ig/ANS-006-115-#150-#67/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T16:25:35+00:00</t>
+    <t>2024-03-26T08:08:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ANS-006-115-#150-#67/StructureDefinition-esms-document-reference.xlsx
+++ b/ig/ANS-006-115-#150-#67/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T08:08:49+00:00</t>
+    <t>2024-03-26T08:51:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
